--- a/data/realabilitet uttrekning.xlsx
+++ b/data/realabilitet uttrekning.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
